--- a/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="152">
   <si>
     <t>土地坐落</t>
   </si>
@@ -408,6 +408,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>世紀民生科技股份有限公 司</t>
   </si>
   <si>
@@ -436,6 +445,9 @@
   </si>
   <si>
     <t>華泰商業銀行股份有限公 司</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -2603,13 +2615,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
@@ -2628,13 +2640,22 @@
       <c r="G1" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -2651,13 +2672,22 @@
       <c r="G2" s="2">
         <v>126170</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -2674,13 +2704,22 @@
       <c r="G3" s="2">
         <v>674630</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -2697,13 +2736,22 @@
       <c r="G4" s="2">
         <v>630750</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
@@ -2720,13 +2768,22 @@
       <c r="G5" s="2">
         <v>446610</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -2743,13 +2800,22 @@
       <c r="G6" s="2">
         <v>127230</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
@@ -2766,13 +2832,22 @@
       <c r="G7" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>55</v>
@@ -2789,13 +2864,22 @@
       <c r="G8" s="2">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
@@ -2812,13 +2896,22 @@
       <c r="G9" s="2">
         <v>267560</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>55</v>
@@ -2835,13 +2928,22 @@
       <c r="G10" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>55</v>
@@ -2857,6 +2959,15 @@
       </c>
       <c r="G11" s="2">
         <v>14990</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1638</v>
       </c>
     </row>
   </sheetData>
@@ -2874,16 +2985,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2891,16 +3002,16 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2908,16 +3019,16 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="154">
   <si>
     <t>土地坐落</t>
   </si>
@@ -408,6 +408,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -417,7 +420,7 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>世紀民生科技股份有限公 司</t>
+    <t>世紀民生科技股份有限公司</t>
   </si>
   <si>
     <t>華新麗華股份有限公司</t>
@@ -444,7 +447,10 @@
     <t>國巨股份有限公司</t>
   </si>
   <si>
-    <t>華泰商業銀行股份有限公 司</t>
+    <t>華泰商業銀行股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-05-01</t>
@@ -2615,13 +2621,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
@@ -2649,13 +2655,16 @@
       <c r="J1" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -2673,21 +2682,24 @@
         <v>126170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="2">
+        <v>144</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -2705,21 +2717,24 @@
         <v>674630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="2">
+        <v>144</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -2737,21 +2752,24 @@
         <v>630750</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="2">
+        <v>144</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
@@ -2769,21 +2787,24 @@
         <v>446610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="2">
+        <v>144</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -2801,21 +2822,24 @@
         <v>127230</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="2">
+        <v>144</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
@@ -2833,21 +2857,24 @@
         <v>2000000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="2">
+        <v>144</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>55</v>
@@ -2865,21 +2892,24 @@
         <v>5000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="2">
+        <v>144</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
@@ -2897,21 +2927,24 @@
         <v>267560</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="2">
+        <v>144</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>55</v>
@@ -2929,21 +2962,24 @@
         <v>300000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="2">
+        <v>144</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>55</v>
@@ -2961,12 +2997,15 @@
         <v>14990</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="2">
+        <v>144</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="2">
         <v>1638</v>
       </c>
     </row>
@@ -2985,16 +3024,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3002,16 +3041,16 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3019,16 +3058,16 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="159">
   <si>
     <t>土地坐落</t>
   </si>
@@ -411,6 +411,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -420,6 +423,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>世紀民生科技股份有限公司</t>
   </si>
   <si>
@@ -453,7 +462,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-05-01</t>
+  </si>
+  <si>
+    <t>tmpe6421</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -2621,13 +2636,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
@@ -2658,13 +2673,22 @@
       <c r="K1" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -2682,24 +2706,33 @@
         <v>126170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="2">
+        <v>148</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -2717,24 +2750,33 @@
         <v>674630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="2">
+        <v>148</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -2752,24 +2794,33 @@
         <v>630750</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="2">
+        <v>148</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N4" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
@@ -2787,24 +2838,33 @@
         <v>446610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="2">
+        <v>148</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -2822,24 +2882,33 @@
         <v>127230</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="2">
+        <v>148</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N6" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
@@ -2857,24 +2926,33 @@
         <v>2000000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="2">
+        <v>148</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N7" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>55</v>
@@ -2892,24 +2970,33 @@
         <v>5000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="2">
+        <v>148</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N8" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
@@ -2927,24 +3014,33 @@
         <v>267560</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="2">
+        <v>148</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>55</v>
@@ -2962,24 +3058,33 @@
         <v>300000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="2">
+        <v>148</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>55</v>
@@ -2997,16 +3102,25 @@
         <v>14990</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="2">
+        <v>148</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="2">
         <v>1638</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N11" s="2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3024,16 +3138,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3041,16 +3155,16 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3058,16 +3172,16 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
@@ -19,9 +19,270 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="159">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="161">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市深坑區坑子段新埤内小段00780004地號</t>
+  </si>
+  <si>
+    <t>新北市新店區中央段00850000地號</t>
+  </si>
+  <si>
+    <t>新北市金山區中角段大水堀小段00400000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段段社後頂小段03020036地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港□小段02360234地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港□小段02360235地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭璉港□小段02360236地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港□小段02580000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭璉港段叭噠港□小段02720000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港□小段02360237地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港□小段02550000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港□小段02590000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭璉港口小段02590000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區西松段一小段07650000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段06240000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段06250000地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段H小段01700000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段H小段02210000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段三小段02210001地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段三小段02300000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段四小段02840000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段四小段02900000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段四小段02960000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段五小段00010000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段五小段00020000地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段07670000地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段07670001地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段07680000地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段07720000地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段00720001地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區景美段五小段01270000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區至善段二小段01380000地號</t>
+  </si>
+  <si>
+    <t>100000之3240</t>
+  </si>
+  <si>
+    <t>100000之291</t>
+  </si>
+  <si>
+    <t>100000之11111</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>100000之374</t>
+  </si>
+  <si>
+    <t>100000之250</t>
+  </si>
+  <si>
+    <t>100000之245</t>
+  </si>
+  <si>
+    <t>100000之205</t>
+  </si>
+  <si>
+    <t>100000之33333</t>
+  </si>
+  <si>
+    <t>100000之10</t>
+  </si>
+  <si>
+    <t>100000之1480</t>
+  </si>
+  <si>
+    <t>100000之3570</t>
+  </si>
+  <si>
+    <t>100000之5769</t>
+  </si>
+  <si>
+    <t>100000之7692</t>
+  </si>
+  <si>
+    <t>100000之1538</t>
+  </si>
+  <si>
+    <t>羅淑蕾</t>
+  </si>
+  <si>
+    <t>87年03月28日</t>
+  </si>
+  <si>
+    <t>96年01月05日</t>
+  </si>
+  <si>
+    <t>90年02月20日</t>
+  </si>
+  <si>
+    <t>68年05月30日</t>
+  </si>
+  <si>
+    <t>68年01月20日</t>
+  </si>
+  <si>
+    <t>68年01月20H</t>
+  </si>
+  <si>
+    <t>68年01月20n</t>
+  </si>
+  <si>
+    <t>91年10月</t>
+  </si>
+  <si>
+    <t>82年05月17日</t>
+  </si>
+  <si>
+    <t>91年08月20日</t>
+  </si>
+  <si>
+    <t>89年09月22H</t>
+  </si>
+  <si>
+    <t>89年09月22日</t>
+  </si>
+  <si>
+    <t>98年04月07闩</t>
+  </si>
+  <si>
+    <t>98年04月07日</t>
+  </si>
+  <si>
+    <t>98年06月12日</t>
+  </si>
+  <si>
+    <t>100年04月11曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超堝石年）</t>
+  </si>
+  <si>
+    <t>(迨過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
+  </si>
+  <si>
+    <t>tmpe6421</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,271 +303,58 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市深坑區坑子段新埤内小 段0078-0004地號</t>
-  </si>
-  <si>
-    <t>新北市新店區中央段0085-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市金山區中角段大水堀小 段0040-0000地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段段社後頂 小段0302-0036地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 □小段0236-0234地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 □小段0236-0235地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭璉港 □小段0236-0236地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 □小段0258-0000地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭璉港段叭噠港 □小段0272-0000地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 □小段0236-0237地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 □小段0255-0000地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 □小段0259-0000地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭璉港 口小段0259-0000地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區西松段一小段</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段 0624-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段 0625-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段H小段 0170-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段H小段 0221-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段三小段 0221-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段三小段 0230-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段四小段 0284-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段四小段 0290-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段四小段 0296-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段五小段 0001-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段五小段 0002-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段 0767-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段 0767-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段 0768-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段 0772-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段 0072-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區景美段五小段 0127-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區至善段二小段 0138-0000 地號</t>
-  </si>
-  <si>
-    <t>100000 之 3240</t>
-  </si>
-  <si>
-    <t>100000 之291</t>
-  </si>
-  <si>
-    <t>100000 之 11111</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100000 之374</t>
-  </si>
-  <si>
-    <t>100000 之250</t>
-  </si>
-  <si>
-    <t>100000 之245</t>
-  </si>
-  <si>
-    <t>100000 之205</t>
-  </si>
-  <si>
-    <t>分</t>
-  </si>
-  <si>
-    <t>100000 之10</t>
-  </si>
-  <si>
-    <t>100000 之 1480</t>
-  </si>
-  <si>
-    <t>100000 之 3570</t>
-  </si>
-  <si>
-    <t>100000 之 5769</t>
-  </si>
-  <si>
-    <t>100000 之 7692</t>
-  </si>
-  <si>
-    <t>100000 之 1538</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>羅淑蕾</t>
-  </si>
-  <si>
-    <t>87年03月 28日</t>
-  </si>
-  <si>
-    <t>96年01月 05日</t>
-  </si>
-  <si>
-    <t>90年02月 20日</t>
-  </si>
-  <si>
-    <t>68年05月 30日</t>
-  </si>
-  <si>
-    <t>68年01月 20日</t>
-  </si>
-  <si>
-    <t>68年01月 20 H</t>
-  </si>
-  <si>
-    <t>68年01月 20 n</t>
-  </si>
-  <si>
-    <t>91年10月</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>82年05月 17日</t>
-  </si>
-  <si>
-    <t>91年08月 20日</t>
-  </si>
-  <si>
-    <t>89年09月 22 H</t>
-  </si>
-  <si>
-    <t>89年09月 22日</t>
-  </si>
-  <si>
-    <t>98年04月 07闩</t>
-  </si>
-  <si>
-    <t>98年04月 07日</t>
-  </si>
-  <si>
-    <t>98年^ 04月 07日</t>
-  </si>
-  <si>
-    <t>98年06月 12日</t>
-  </si>
-  <si>
-    <t>100 年 04 月11曰</t>
-  </si>
-  <si>
-    <t>(超堝石年）</t>
-  </si>
-  <si>
-    <t>(迨過五年）</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段三小段 30248-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段5小段 03375-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段5小段 03381-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段 01342-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段 01317-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大同區延平段一小段 00395-000 建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭璉港段叭噠港 □小段03323-000建號</t>
-  </si>
-  <si>
-    <t>新北市深坑區坑子段新埤内小 段03755-000建號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段 00761-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區景美段五小段 00071 -000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區至善段二小段 20049-000 建號</t>
+    <t>臺北市士林區華岡段三小段30248000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段5小段03375000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段5小段03381000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段01342000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段01317000建號</t>
+  </si>
+  <si>
+    <t>臺北市大同區延平段一小段00395000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭璉港段叭噠港□小段03323000建號</t>
+  </si>
+  <si>
+    <t>新北市深坑區坑子段新埤内小段03755000建號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段00761000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區景美段五小段00071000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區至善段二小段20049000建號</t>
   </si>
   <si>
     <t>80分之4</t>
   </si>
   <si>
-    <t>10000分之 2054</t>
+    <t>10000分之2054</t>
   </si>
   <si>
     <t>200分之1</t>
   </si>
   <si>
-    <t>82年10月 18日</t>
-  </si>
-  <si>
-    <t>82年09月 04日</t>
-  </si>
-  <si>
-    <t>89年06月 06日</t>
-  </si>
-  <si>
-    <t>98年06月 12曰</t>
+    <t>82年10月18日</t>
+  </si>
+  <si>
+    <t>82年09月04日</t>
+  </si>
+  <si>
+    <t>89年06月06日</t>
+  </si>
+  <si>
+    <t>98年06月12曰</t>
   </si>
   <si>
     <t>13分之1</t>
@@ -318,7 +366,7 @@
     <t>繼承</t>
   </si>
   <si>
-    <t>40，000,000</t>
+    <t>40000000</t>
   </si>
   <si>
     <t>型式</t>
@@ -333,10 +381,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>幣 別</t>
-  </si>
-  <si>
-    <t>外 幣總額</t>
+    <t>幣別</t>
+  </si>
+  <si>
+    <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
@@ -348,12 +396,6 @@
     <t>種類</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
     <t>安泰商業銀行民權分行</t>
   </si>
   <si>
@@ -390,12 +432,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -408,27 +444,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>世紀民生科技股份有限公司</t>
   </si>
   <si>
@@ -462,15 +477,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-05-01</t>
-  </si>
-  <si>
-    <t>tmpe6421</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -492,10 +498,10 @@
     <t>6年期步步高升15萬</t>
   </si>
   <si>
-    <t>保單號碼：6 3 2 8 7 4 4 6 .保障期間：9 5/6/8 至1 0 1/6/8 .保額為3 0萬.台南/歸仁郵局.</t>
-  </si>
-  <si>
-    <t>保單號碼：6 3 2 8 7 4 6 7.保障期間•• 9 5/6/8 至1 0 1/6/8 .保額為1 5萬.台南/歸仁郵局</t>
+    <t>保單號碼：63287446.保障期間：9568至10168.保額為30萬.台南歸仁郵局.</t>
+  </si>
+  <si>
+    <t>保單號碼：63287467.保障期間9568至10168.保額為15萬.台南歸仁郵局</t>
   </si>
 </sst>
 </file>
@@ -854,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,993 +876,1589 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>319.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>12.44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
+      </c>
+      <c r="H3" s="2">
+        <v>430000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="2">
-        <v>430000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>83</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>390.25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16050000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="2">
-        <v>16050000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>83</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>5220</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>2.56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>0.09</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>4.13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>0.32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>2.45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>2.52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>1.46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>12.74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
         <v>5.74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
         <v>5.63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2">
         <v>8.99</v>
       </c>
-      <c r="D16" s="2">
-        <v>100000</v>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2">
         <v>0.01</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
         <v>19.75</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O18" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
         <v>40.62</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2">
         <v>35.39</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2">
         <v>0.97</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O21" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2">
         <v>1.53</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O22" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2">
         <v>89.2</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>32.34</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O24" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2">
         <v>4.46</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2">
         <v>4.18</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O26" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
         <v>0.03</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O27" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2">
         <v>17</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="2">
+        <v>61</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="2">
         <v>18000000</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O28" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="2">
+        <v>18000000</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O29" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
         <v>42</v>
       </c>
-      <c r="F29" s="2">
-        <v>18000000</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1">
-        <v>44</v>
-      </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2">
         <v>74</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="2">
+        <v>18000000</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O30" s="2">
         <v>42</v>
       </c>
-      <c r="F30" s="2">
-        <v>18000000</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2">
         <v>22</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="2">
+        <v>61</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="2">
         <v>18000000</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="I31" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O31" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="2">
+        <v>61</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="2">
         <v>18000000</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="I32" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O32" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2">
         <v>95</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="2">
+        <v>61</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="2">
         <v>22000000</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="I33" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O33" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2">
         <v>553</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="2">
+        <v>61</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="2">
         <v>40000000</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="I34" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O34" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1874,35 +2476,35 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2">
         <v>12.8</v>
@@ -1910,428 +2512,428 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2">
         <v>52.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2">
         <v>326.3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2">
         <v>65.97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2">
         <v>99.8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2">
         <v>48.54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2">
         <v>2.35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2">
         <v>127.2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2">
         <v>127.2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2">
         <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2">
         <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2">
         <v>115.5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2">
         <v>116.1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2">
         <v>154.92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J15" s="2">
         <v>18000000</v>
@@ -2339,31 +2941,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2">
         <v>81.24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J16" s="2">
         <v>22000000</v>
@@ -2371,34 +2973,34 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2">
         <v>395.64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2416,33 +3018,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2460,39 +3062,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -2501,19 +3103,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -2522,19 +3124,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -2543,19 +3145,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -2564,19 +3166,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2">
         <v>1751000</v>
@@ -2587,19 +3189,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2">
         <v>1042106</v>
@@ -2610,19 +3212,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -2644,54 +3246,54 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2">
         <v>12617</v>
@@ -2700,42 +3302,42 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2">
         <v>126170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L2" s="2">
         <v>1638</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="N2" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2">
         <v>67463</v>
@@ -2744,42 +3346,42 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2">
         <v>674630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L3" s="2">
         <v>1638</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2">
         <v>63075</v>
@@ -2788,42 +3390,42 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2">
         <v>630750</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L4" s="2">
         <v>1638</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="N4" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2">
         <v>44661</v>
@@ -2832,42 +3434,42 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2">
         <v>446610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L5" s="2">
         <v>1638</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2">
         <v>12723</v>
@@ -2876,42 +3478,42 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G6" s="2">
         <v>127230</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L6" s="2">
         <v>1638</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="N6" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2">
         <v>200000</v>
@@ -2920,42 +3522,42 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G7" s="2">
         <v>2000000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L7" s="2">
         <v>1638</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="N7" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2">
         <v>500000</v>
@@ -2964,42 +3566,42 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G8" s="2">
         <v>5000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L8" s="2">
         <v>1638</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="N8" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2">
         <v>26756</v>
@@ -3008,42 +3610,42 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G9" s="2">
         <v>267560</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L9" s="2">
         <v>1638</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="N9" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2">
         <v>30000</v>
@@ -3052,42 +3654,42 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G10" s="2">
         <v>300000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L10" s="2">
         <v>1638</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="N10" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2">
         <v>1499</v>
@@ -3096,31 +3698,31 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G11" s="2">
         <v>14990</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L11" s="2">
         <v>1638</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="N11" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3138,50 +3740,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市深坑區坑子段新埤内小段00780004地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市新店區中央段00850000地號</t>
@@ -159,9 +162,6 @@
     <t>臺北市士林區至善段二小段01380000地號</t>
   </si>
   <si>
-    <t>100000之3240</t>
-  </si>
-  <si>
     <t>100000之291</t>
   </si>
   <si>
@@ -207,198 +207,168 @@
     <t>羅淑蕾</t>
   </si>
   <si>
+    <t>96年01月05日</t>
+  </si>
+  <si>
+    <t>90年02月20日</t>
+  </si>
+  <si>
+    <t>68年05月30日</t>
+  </si>
+  <si>
+    <t>68年01月20日</t>
+  </si>
+  <si>
+    <t>68年01月20H</t>
+  </si>
+  <si>
+    <t>68年01月20n</t>
+  </si>
+  <si>
+    <t>91年10月</t>
+  </si>
+  <si>
+    <t>82年05月17日</t>
+  </si>
+  <si>
+    <t>91年08月20日</t>
+  </si>
+  <si>
+    <t>89年09月22H</t>
+  </si>
+  <si>
+    <t>89年09月22日</t>
+  </si>
+  <si>
+    <t>98年04月07闩</t>
+  </si>
+  <si>
+    <t>98年04月07日</t>
+  </si>
+  <si>
+    <t>98年06月12日</t>
+  </si>
+  <si>
+    <t>100年04月11曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>(超堝石年）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(迨過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
+  </si>
+  <si>
+    <t>tmpe6421</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段三小段30248000建號</t>
+  </si>
+  <si>
+    <t>13分之1</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段5小段03375000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段5小段03381000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段01342000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段01317000建號</t>
+  </si>
+  <si>
+    <t>臺北市大同區延平段一小段00395000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭璉港段叭噠港□小段03323000建號</t>
+  </si>
+  <si>
+    <t>新北市深坑區坑子段新埤内小段03755000建號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段00761000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區景美段五小段00071000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區至善段二小段20049000建號</t>
+  </si>
+  <si>
+    <t>80分之4</t>
+  </si>
+  <si>
+    <t>10000分之2054</t>
+  </si>
+  <si>
+    <t>200分之1</t>
+  </si>
+  <si>
+    <t>82年10月18日</t>
+  </si>
+  <si>
+    <t>82年09月04日</t>
+  </si>
+  <si>
+    <t>89年06月06日</t>
+  </si>
+  <si>
     <t>87年03月28日</t>
   </si>
   <si>
-    <t>96年01月05日</t>
-  </si>
-  <si>
-    <t>90年02月20日</t>
-  </si>
-  <si>
-    <t>68年05月30日</t>
-  </si>
-  <si>
-    <t>68年01月20日</t>
-  </si>
-  <si>
-    <t>68年01月20H</t>
-  </si>
-  <si>
-    <t>68年01月20n</t>
-  </si>
-  <si>
-    <t>91年10月</t>
-  </si>
-  <si>
-    <t>82年05月17日</t>
-  </si>
-  <si>
-    <t>91年08月20日</t>
-  </si>
-  <si>
-    <t>89年09月22H</t>
-  </si>
-  <si>
-    <t>89年09月22日</t>
-  </si>
-  <si>
-    <t>98年04月07闩</t>
-  </si>
-  <si>
-    <t>98年04月07日</t>
-  </si>
-  <si>
-    <t>98年06月12日</t>
-  </si>
-  <si>
-    <t>100年04月11曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超堝石年）</t>
-  </si>
-  <si>
-    <t>(迨過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-05-01</t>
-  </si>
-  <si>
-    <t>tmpe6421</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段三小段30248000建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段5小段03375000建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段5小段03381000建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段01342000建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段01317000建號</t>
-  </si>
-  <si>
-    <t>臺北市大同區延平段一小段00395000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭璉港段叭噠港□小段03323000建號</t>
-  </si>
-  <si>
-    <t>新北市深坑區坑子段新埤内小段03755000建號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段00761000建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區景美段五小段00071000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區至善段二小段20049000建號</t>
-  </si>
-  <si>
-    <t>80分之4</t>
-  </si>
-  <si>
-    <t>10000分之2054</t>
-  </si>
-  <si>
-    <t>200分之1</t>
-  </si>
-  <si>
-    <t>82年10月18日</t>
-  </si>
-  <si>
-    <t>82年09月04日</t>
-  </si>
-  <si>
-    <t>89年06月06日</t>
-  </si>
-  <si>
     <t>98年06月12曰</t>
   </si>
   <si>
-    <t>13分之1</t>
-  </si>
-  <si>
     <t>貿賣</t>
   </si>
   <si>
-    <t>繼承</t>
-  </si>
-  <si>
     <t>40000000</t>
   </si>
   <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
+    <t>幣別</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
     <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>安泰商業銀行民權分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>安泰商業銀行</t>
   </si>
   <si>
@@ -414,18 +384,12 @@
     <t>永豐商業銀行敦南分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
     <t>綜合存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>人民幣</t>
   </si>
   <si>
@@ -441,12 +405,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>世紀民生科技股份有限公司</t>
-  </si>
-  <si>
     <t>華新麗華股份有限公司</t>
   </si>
   <si>
@@ -477,28 +435,16 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>中華郵政</t>
   </si>
   <si>
     <t>6年期步步高升30萬</t>
   </si>
   <si>
+    <t>保單號碼：63287446.保障期間：9568至10168.保額為30萬.台南歸仁郵局.</t>
+  </si>
+  <si>
     <t>6年期步步高升15萬</t>
-  </si>
-  <si>
-    <t>保單號碼：63287446.保障期間：9568至10168.保額為30萬.台南歸仁郵局.</t>
   </si>
   <si>
     <t>保單號碼：63287467.保障期間9568至10168.保額為15萬.台南歸仁郵局</t>
@@ -860,13 +806,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,19 +855,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>319.1</v>
+        <v>12.44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>61</v>
@@ -930,19 +882,19 @@
         <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="H2" s="2">
+        <v>430000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>61</v>
@@ -951,45 +903,51 @@
         <v>1638</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00291</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.0362004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>12.44</v>
+        <v>390.25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="2">
-        <v>430000</v>
+        <v>16050000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>61</v>
@@ -998,24 +956,30 @@
         <v>1638</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.11111</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>43.3606775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>390.25</v>
+        <v>5220</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>61</v>
@@ -1024,19 +988,19 @@
         <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="2">
-        <v>16050000</v>
+        <v>77</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>61</v>
@@ -1045,24 +1009,30 @@
         <v>1638</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>5220</v>
+        <v>2.56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>61</v>
@@ -1071,19 +1041,19 @@
         <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>61</v>
@@ -1092,21 +1062,27 @@
         <v>1638</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00374</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.0095744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>2.56</v>
+        <v>0.09</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -1118,19 +1094,19 @@
         <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>61</v>
@@ -1139,21 +1115,27 @@
         <v>1638</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00374</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.0003366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>0.09</v>
+        <v>4.13</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>50</v>
@@ -1165,19 +1147,19 @@
         <v>66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>61</v>
@@ -1186,45 +1168,51 @@
         <v>1638</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.00374</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.0154462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>4.13</v>
+        <v>0.32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>61</v>
@@ -1233,45 +1221,51 @@
         <v>1638</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0025</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.0008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>0.32</v>
+        <v>2.45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>61</v>
@@ -1280,45 +1274,51 @@
         <v>1638</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.00245</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.0060025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>61</v>
@@ -1327,21 +1327,27 @@
         <v>1638</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.00374</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.0094248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>2.52</v>
+        <v>1.46</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>50</v>
@@ -1350,22 +1356,22 @@
         <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>61</v>
@@ -1374,21 +1380,27 @@
         <v>1638</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.00374</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.0054604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>1.46</v>
+        <v>12.74</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>50</v>
@@ -1397,116 +1409,128 @@
         <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="2">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.00374</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.0476476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.74</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1638</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12.74</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="2">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.00205</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.011767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5.63</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1638</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2">
-        <v>5.74</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E14" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>61</v>
@@ -1515,45 +1539,51 @@
         <v>1638</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.00374</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.0210562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>5.63</v>
+        <v>8.99</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>61</v>
@@ -1562,24 +1592,30 @@
         <v>1638</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.33333</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2.9966367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>8.99</v>
+        <v>0.01</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>61</v>
@@ -1588,19 +1624,19 @@
         <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>61</v>
@@ -1609,45 +1645,51 @@
         <v>1638</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1e-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>0.01</v>
+        <v>19.75</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>61</v>
@@ -1656,24 +1698,30 @@
         <v>1638</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O17" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.0148</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.2923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>19.75</v>
+        <v>40.62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>61</v>
@@ -1682,19 +1730,19 @@
         <v>70</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>61</v>
@@ -1703,24 +1751,30 @@
         <v>1638</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O18" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.0357</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1.450134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>40.62</v>
+        <v>35.39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>61</v>
@@ -1735,13 +1789,13 @@
         <v>80</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>61</v>
@@ -1750,21 +1804,27 @@
         <v>1638</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O19" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.05769</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2.0416491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>35.39</v>
+        <v>0.97</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>58</v>
@@ -1776,19 +1836,19 @@
         <v>72</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>61</v>
@@ -1797,45 +1857,51 @@
         <v>1638</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O20" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.05769</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.0559593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
-        <v>0.97</v>
+        <v>1.53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>61</v>
@@ -1844,45 +1910,51 @@
         <v>1638</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O21" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.07692</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.1176876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2">
-        <v>1.53</v>
+        <v>89.2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>61</v>
@@ -1891,21 +1963,27 @@
         <v>1638</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O22" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.01538</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1.371896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2">
-        <v>89.2</v>
+        <v>32.34</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>60</v>
@@ -1914,22 +1992,22 @@
         <v>61</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>61</v>
@@ -1938,21 +2016,27 @@
         <v>1638</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O23" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.01538</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.4973892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2">
-        <v>32.34</v>
+        <v>4.46</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>60</v>
@@ -1961,22 +2045,22 @@
         <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>61</v>
@@ -1985,21 +2069,27 @@
         <v>1638</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O24" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.01538</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.0685948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2">
-        <v>4.46</v>
+        <v>4.18</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>60</v>
@@ -2011,19 +2101,19 @@
         <v>72</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>61</v>
@@ -2032,21 +2122,27 @@
         <v>1638</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O25" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.01538</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.0642884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2">
-        <v>4.18</v>
+        <v>0.03</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>60</v>
@@ -2055,22 +2151,22 @@
         <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>61</v>
@@ -2079,24 +2175,30 @@
         <v>1638</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>39</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.01538</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.0004614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2">
-        <v>0.03</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>61</v>
@@ -2105,19 +2207,19 @@
         <v>73</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="H27" s="2">
+        <v>18000000</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>61</v>
@@ -2126,21 +2228,27 @@
         <v>1638</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>40</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>49</v>
@@ -2152,19 +2260,19 @@
         <v>74</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H28" s="2">
         <v>18000000</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>61</v>
@@ -2173,21 +2281,27 @@
         <v>1638</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>49</v>
@@ -2196,22 +2310,22 @@
         <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H29" s="2">
         <v>18000000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>61</v>
@@ -2220,21 +2334,27 @@
         <v>1638</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>42</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>49</v>
@@ -2243,22 +2363,22 @@
         <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H30" s="2">
         <v>18000000</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>61</v>
@@ -2267,21 +2387,27 @@
         <v>1638</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O30" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>43</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>49</v>
@@ -2290,22 +2416,22 @@
         <v>61</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H31" s="2">
         <v>18000000</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>61</v>
@@ -2314,21 +2440,27 @@
         <v>1638</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O31" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>44</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>49</v>
@@ -2340,19 +2472,19 @@
         <v>75</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H32" s="2">
-        <v>18000000</v>
+        <v>22000000</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>61</v>
@@ -2361,21 +2493,27 @@
         <v>1638</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O32" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>45</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2">
-        <v>95</v>
+        <v>553</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>49</v>
@@ -2387,19 +2525,19 @@
         <v>76</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H33" s="2">
-        <v>22000000</v>
+        <v>40000000</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>61</v>
@@ -2408,57 +2546,16 @@
         <v>1638</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O33" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1">
         <v>46</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
         <v>553</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="2">
-        <v>40000000</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1638</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O34" s="2">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +2565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2476,68 +2573,76 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="C1" s="1">
+        <v>12.8</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="J1" s="1">
+        <v>40000000</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2">
+        <v>52.3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="2">
-        <v>12.8</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2">
-        <v>52.3</v>
+        <v>326.3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>61</v>
@@ -2546,10 +2651,10 @@
         <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>80</v>
@@ -2557,31 +2662,31 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2">
-        <v>326.3</v>
+        <v>65.97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>80</v>
@@ -2589,31 +2694,31 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2">
-        <v>65.97</v>
+        <v>99.8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>80</v>
@@ -2621,31 +2726,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2">
-        <v>99.8</v>
+        <v>48.54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>80</v>
@@ -2653,31 +2758,31 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2">
-        <v>48.54</v>
+        <v>2.35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>80</v>
@@ -2685,31 +2790,31 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2">
-        <v>2.35</v>
+        <v>127.2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>80</v>
@@ -2717,10 +2822,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2">
         <v>127.2</v>
@@ -2729,7 +2834,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>61</v>
@@ -2738,10 +2843,10 @@
         <v>49</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>80</v>
@@ -2749,19 +2854,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2">
-        <v>127.2</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>61</v>
@@ -2770,10 +2875,10 @@
         <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>80</v>
@@ -2781,10 +2886,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2">
         <v>147</v>
@@ -2793,7 +2898,7 @@
         <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>61</v>
@@ -2802,10 +2907,10 @@
         <v>49</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>80</v>
@@ -2813,19 +2918,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2">
-        <v>147</v>
+        <v>115.5</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>61</v>
@@ -2834,10 +2939,10 @@
         <v>49</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>80</v>
@@ -2845,19 +2950,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2">
-        <v>115.5</v>
+        <v>116.1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>61</v>
@@ -2866,10 +2971,10 @@
         <v>49</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>80</v>
@@ -2877,19 +2982,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2">
-        <v>116.1</v>
+        <v>154.92</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>61</v>
@@ -2898,30 +3003,30 @@
         <v>49</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="J14" s="2">
+        <v>18000000</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C15" s="2">
-        <v>154.92</v>
+        <v>81.24</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>61</v>
@@ -2930,30 +3035,30 @@
         <v>49</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J15" s="2">
-        <v>18000000</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2">
-        <v>81.24</v>
+        <v>395.64</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>61</v>
@@ -2962,45 +3067,13 @@
         <v>49</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="2">
-        <v>22000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <v>64</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="2">
-        <v>395.64</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>115</v>
+      <c r="J16" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3009,6 +3082,644 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>11613676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>25246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>59831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>87</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1751000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7879500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1042106</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30533705.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>89</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>1593775</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2">
+        <v>67463</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="2">
+        <v>674630</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2">
+        <v>63075</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="2">
+        <v>630750</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>98</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44661</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="2">
+        <v>446610</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>99</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2">
+        <v>12723</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="2">
+        <v>127230</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2">
+        <v>200000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2">
+        <v>500000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>102</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2">
+        <v>26756</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="2">
+        <v>267560</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>103</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1499</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="2">
+        <v>14990</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="2">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3018,772 +3729,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>11613676</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>25246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>86</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>59831</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>87</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1751000</v>
-      </c>
-      <c r="G6" s="2">
-        <v>7879500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>88</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1042106</v>
-      </c>
-      <c r="G7" s="2">
-        <v>30533705.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>89</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1593775</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>95</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="2">
-        <v>12617</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="2">
-        <v>126170</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>96</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="2">
-        <v>67463</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="2">
-        <v>674630</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>97</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2">
-        <v>63075</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="2">
-        <v>630750</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>98</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44661</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="2">
-        <v>446610</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>99</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="2">
-        <v>12723</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="2">
-        <v>127230</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>100</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="2">
-        <v>200000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>101</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2">
-        <v>500000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1">
-        <v>102</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="2">
-        <v>26756</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="2">
-        <v>267560</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N9" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
-        <v>103</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="2">
-        <v>300000</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>104</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1499</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="2">
-        <v>14990</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" s="2">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>132</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>133</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="146">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市深坑區坑子段新埤内小段00780004地號</t>
+  </si>
+  <si>
     <t>新北市新店區中央段00850000地號</t>
   </si>
   <si>
@@ -162,6 +165,9 @@
     <t>臺北市士林區至善段二小段01380000地號</t>
   </si>
   <si>
+    <t>100000之3240</t>
+  </si>
+  <si>
     <t>100000之291</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>羅淑蕾</t>
   </si>
   <si>
+    <t>87年03月28日</t>
+  </si>
+  <si>
     <t>96年01月05日</t>
   </si>
   <si>
@@ -258,12 +267,12 @@
     <t>分割繼承</t>
   </si>
   <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
     <t>(超堝石年）</t>
   </si>
   <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
     <t>(迨過五年）</t>
   </si>
   <si>
@@ -282,66 +291,63 @@
     <t>臺北市士林區華岡段三小段30248000建號</t>
   </si>
   <si>
+    <t>臺北市中山區吉林段5小段03375000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段5小段03381000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段01342000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段01317000建號</t>
+  </si>
+  <si>
+    <t>臺北市大同區延平段一小段00395000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭璉港段叭噠港□小段03323000建號</t>
+  </si>
+  <si>
+    <t>新北市深坑區坑子段新埤内小段03755000建號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段00761000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區景美段五小段00071000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區至善段二小段20049000建號</t>
+  </si>
+  <si>
     <t>13分之1</t>
   </si>
   <si>
+    <t>80分之4</t>
+  </si>
+  <si>
+    <t>10000分之2054</t>
+  </si>
+  <si>
+    <t>200分之1</t>
+  </si>
+  <si>
+    <t>82年10月18日</t>
+  </si>
+  <si>
+    <t>82年09月04日</t>
+  </si>
+  <si>
+    <t>89年06月06日</t>
+  </si>
+  <si>
+    <t>98年06月12曰</t>
+  </si>
+  <si>
     <t>繼承</t>
   </si>
   <si>
-    <t>臺北市中山區吉林段5小段03375000建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段5小段03381000建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段01342000建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段01317000建號</t>
-  </si>
-  <si>
-    <t>臺北市大同區延平段一小段00395000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭璉港段叭噠港□小段03323000建號</t>
-  </si>
-  <si>
-    <t>新北市深坑區坑子段新埤内小段03755000建號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段00761000建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區景美段五小段00071000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區至善段二小段20049000建號</t>
-  </si>
-  <si>
-    <t>80分之4</t>
-  </si>
-  <si>
-    <t>10000分之2054</t>
-  </si>
-  <si>
-    <t>200分之1</t>
-  </si>
-  <si>
-    <t>82年10月18日</t>
-  </si>
-  <si>
-    <t>82年09月04日</t>
-  </si>
-  <si>
-    <t>89年06月06日</t>
-  </si>
-  <si>
-    <t>87年03月28日</t>
-  </si>
-  <si>
-    <t>98年06月12曰</t>
-  </si>
-  <si>
     <t>貿賣</t>
   </si>
   <si>
@@ -403,6 +409,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>世紀民生科技股份有限公司</t>
   </si>
   <si>
     <t>華新麗華股份有限公司</t>
@@ -806,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -864,1697 +873,1750 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>12.44</v>
+        <v>319.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="2">
-        <v>430000</v>
+        <v>80</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M2" s="2">
         <v>1638</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.00291</v>
+        <v>0.0324</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.0362004</v>
+        <v>10.33884</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>390.25</v>
+        <v>12.44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H3" s="2">
-        <v>16050000</v>
+        <v>430000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" s="2">
         <v>1638</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.11111</v>
+        <v>0.00291</v>
       </c>
       <c r="Q3" s="2">
-        <v>43.3606775</v>
+        <v>0.0362004</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>5220</v>
+        <v>390.25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16050000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" s="2">
         <v>1638</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0.11111</v>
       </c>
       <c r="Q4" s="2">
-        <v>5220</v>
+        <v>43.3606775</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>2.56</v>
+        <v>5220</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M5" s="2">
         <v>1638</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.00374</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.0095744</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>0.09</v>
+        <v>2.56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M6" s="2">
         <v>1638</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.00374</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.0003366</v>
+        <v>0.0095744</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>4.13</v>
+        <v>0.09</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M7" s="2">
         <v>1638</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.00374</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.0154462</v>
+        <v>0.0003366</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>0.32</v>
+        <v>4.13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M8" s="2">
         <v>1638</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0025</v>
+        <v>0.00374</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.0008</v>
+        <v>0.0154462</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>2.45</v>
+        <v>0.32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M9" s="2">
         <v>1638</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
-        <v>0.00245</v>
+        <v>0.0025</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.0060025</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M10" s="2">
         <v>1638</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
-        <v>0.00374</v>
+        <v>0.00245</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.0094248</v>
+        <v>0.0060025</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>1.46</v>
+        <v>2.52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="2">
         <v>1638</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>0.00374</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.0054604</v>
+        <v>0.0094248</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>12.74</v>
+        <v>1.46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M12" s="2">
         <v>1638</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>0.00374</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.0476476</v>
+        <v>0.0054604</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>5.74</v>
+        <v>12.74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M13" s="2">
         <v>1638</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
-        <v>0.00205</v>
+        <v>0.00374</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.011767</v>
+        <v>0.0476476</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2">
-        <v>5.63</v>
+        <v>5.74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M14" s="2">
         <v>1638</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
-        <v>0.00374</v>
+        <v>0.00205</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.0210562</v>
+        <v>0.011767</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>8.99</v>
+        <v>5.63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M15" s="2">
         <v>1638</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
-        <v>0.33333</v>
+        <v>0.00374</v>
       </c>
       <c r="Q15" s="2">
-        <v>2.9966367</v>
+        <v>0.0210562</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>0.01</v>
+        <v>8.99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M16" s="2">
         <v>1638</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
-        <v>0.0001</v>
+        <v>0.33333</v>
       </c>
       <c r="Q16" s="2">
-        <v>1e-06</v>
+        <v>2.9966367</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>19.75</v>
+        <v>0.01</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M17" s="2">
         <v>1638</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="2">
-        <v>0.0148</v>
+        <v>0.0001</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.2923</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>40.62</v>
+        <v>19.75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M18" s="2">
         <v>1638</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="2">
-        <v>0.0357</v>
+        <v>0.0148</v>
       </c>
       <c r="Q18" s="2">
-        <v>1.450134</v>
+        <v>0.2923</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>35.39</v>
+        <v>40.62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M19" s="2">
         <v>1638</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O19" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" s="2">
-        <v>0.05769</v>
+        <v>0.0357</v>
       </c>
       <c r="Q19" s="2">
-        <v>2.0416491</v>
+        <v>1.450134</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>0.97</v>
+        <v>35.39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M20" s="2">
         <v>1638</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O20" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P20" s="2">
         <v>0.05769</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.0559593</v>
+        <v>2.0416491</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="2">
-        <v>1.53</v>
+        <v>0.97</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M21" s="2">
         <v>1638</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O21" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P21" s="2">
-        <v>0.07692</v>
+        <v>0.05769</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.1176876</v>
+        <v>0.0559593</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="2">
-        <v>89.2</v>
+        <v>1.53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M22" s="2">
         <v>1638</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O22" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P22" s="2">
-        <v>0.01538</v>
+        <v>0.07692</v>
       </c>
       <c r="Q22" s="2">
-        <v>1.371896</v>
+        <v>0.1176876</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
-        <v>32.34</v>
+        <v>89.2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M23" s="2">
         <v>1638</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O23" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="2">
         <v>0.01538</v>
       </c>
       <c r="Q23" s="2">
-        <v>0.4973892</v>
+        <v>1.371896</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="2">
-        <v>4.46</v>
+        <v>32.34</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M24" s="2">
         <v>1638</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O24" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P24" s="2">
         <v>0.01538</v>
       </c>
       <c r="Q24" s="2">
-        <v>0.0685948</v>
+        <v>0.4973892</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="2">
-        <v>4.18</v>
+        <v>4.46</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M25" s="2">
         <v>1638</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O25" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P25" s="2">
         <v>0.01538</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.0642884</v>
+        <v>0.0685948</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="2">
-        <v>0.03</v>
+        <v>4.18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M26" s="2">
         <v>1638</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O26" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P26" s="2">
         <v>0.01538</v>
       </c>
       <c r="Q26" s="2">
-        <v>0.0004614</v>
+        <v>0.0642884</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="2">
-        <v>17</v>
+        <v>0.03</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="2">
-        <v>18000000</v>
+        <v>81</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M27" s="2">
         <v>1638</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O27" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="2">
-        <v>1</v>
+        <v>0.01538</v>
       </c>
       <c r="Q27" s="2">
-        <v>17</v>
+        <v>0.0004614</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H28" s="2">
         <v>18000000</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M28" s="2">
         <v>1638</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O28" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P28" s="2">
         <v>1</v>
       </c>
       <c r="Q28" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="2">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H29" s="2">
         <v>18000000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M29" s="2">
         <v>1638</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O29" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P29" s="2">
         <v>1</v>
       </c>
       <c r="Q29" s="2">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="2">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H30" s="2">
         <v>18000000</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M30" s="2">
         <v>1638</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O30" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P30" s="2">
         <v>1</v>
       </c>
       <c r="Q30" s="2">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H31" s="2">
         <v>18000000</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M31" s="2">
         <v>1638</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O31" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P31" s="2">
         <v>1</v>
       </c>
       <c r="Q31" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="2">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H32" s="2">
-        <v>22000000</v>
+        <v>18000000</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M32" s="2">
         <v>1638</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O32" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P32" s="2">
         <v>1</v>
       </c>
       <c r="Q32" s="2">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="2">
-        <v>553</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H33" s="2">
-        <v>40000000</v>
+        <v>22000000</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M33" s="2">
         <v>1638</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O33" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="2">
         <v>1</v>
       </c>
       <c r="Q33" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1">
+        <v>46</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2">
+        <v>553</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O34" s="2">
+        <v>46</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
         <v>553</v>
       </c>
     </row>
@@ -2565,515 +2627,908 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="1">
-        <v>12.8</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="1">
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="2">
-        <v>52.3</v>
+        <v>12.8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="2">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="P2" s="2">
+        <v>0.0769230769230769</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.984615384615385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="2">
-        <v>326.3</v>
+        <v>52.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="2">
+        <v>50</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="2">
-        <v>65.97</v>
+        <v>326.3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>86</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="2">
+        <v>51</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>326.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="2">
-        <v>99.8</v>
+        <v>65.97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>86</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="2">
+        <v>52</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3.2985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="2">
-        <v>48.54</v>
+        <v>99.8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>86</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="2">
+        <v>53</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="2">
-        <v>2.35</v>
+        <v>48.54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>86</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="2">
+        <v>54</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.2054</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>9.970116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C8" s="2">
-        <v>127.2</v>
+        <v>2.35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>86</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="2">
+        <v>55</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.005</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.01175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2">
         <v>127.2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="2">
+        <v>56</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>127.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="2">
+        <v>127.2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
+      <c r="H10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="2">
+        <v>57</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>127.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
         <v>58</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="2">
-        <v>147</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>59</v>
-      </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2">
         <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="2">
+        <v>58</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="2">
+        <v>147</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="2">
+        <v>59</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2">
+        <v>115.5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="2">
+        <v>60</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
         <v>61</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="2">
-        <v>115.5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>61</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="2">
-        <v>116.1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C14" s="2">
-        <v>154.92</v>
+        <v>116.1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="2">
         <v>61</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="2">
-        <v>18000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="2">
-        <v>81.24</v>
+        <v>154.92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
+      </c>
+      <c r="H15" s="2">
+        <v>18000000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="2">
-        <v>22000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>85</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="2">
+        <v>62</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>154.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C16" s="2">
+        <v>81.24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="2">
+        <v>22000000</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" s="2">
+        <v>63</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>81.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="2">
         <v>395.64</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>108</v>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="2">
+        <v>64</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>395.64</v>
       </c>
     </row>
   </sheetData>
@@ -3082,644 +3537,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>11613676</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>25246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>59831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>87</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1751000</v>
-      </c>
-      <c r="G5" s="2">
-        <v>7879500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>88</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1042106</v>
-      </c>
-      <c r="G6" s="2">
-        <v>30533705.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>89</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>1593775</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>96</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="2">
-        <v>67463</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="2">
-        <v>674630</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>97</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="2">
-        <v>63075</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="2">
-        <v>630750</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>98</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2">
-        <v>44661</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="2">
-        <v>446610</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>99</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="2">
-        <v>12723</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="2">
-        <v>127230</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N5" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="2">
-        <v>200000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>101</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="2">
-        <v>500000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N7" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>102</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2">
-        <v>26756</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="2">
-        <v>267560</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1">
-        <v>103</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="2">
-        <v>300000</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
-        <v>104</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1499</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="2">
-        <v>14990</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="2">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3729,33 +3546,770 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>11613676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>11613676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>25246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>59831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1751000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7879500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1042106</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30533705.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>1593775</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2">
+        <v>12617</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="2">
+        <v>126170</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2">
+        <v>67463</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="2">
+        <v>674630</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2">
+        <v>63075</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="2">
+        <v>630750</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44661</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="2">
+        <v>446610</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>99</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12723</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="2">
+        <v>127230</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2">
+        <v>200000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2">
+        <v>500000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>102</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2">
+        <v>26756</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="2">
+        <v>267560</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>103</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>104</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1499</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="2">
+        <v>14990</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="2">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>132</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>133</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>142</v>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
@@ -9,17 +9,16 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="航空器" sheetId="3" r:id="rId3"/>
-    <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="存款" sheetId="3" r:id="rId3"/>
+    <sheet name="股票" sheetId="4" r:id="rId4"/>
+    <sheet name="保險" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -354,16 +353,7 @@
     <t>40000000</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
+    <t>building</t>
   </si>
   <si>
     <t>安泰商業銀行民權分行</t>
@@ -2709,7 +2699,7 @@
         <v>40000000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>86</v>
@@ -2762,7 +2752,7 @@
         <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>86</v>
@@ -2815,7 +2805,7 @@
         <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>86</v>
@@ -2868,7 +2858,7 @@
         <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>86</v>
@@ -2921,7 +2911,7 @@
         <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>86</v>
@@ -2974,7 +2964,7 @@
         <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>86</v>
@@ -3027,7 +3017,7 @@
         <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>86</v>
@@ -3080,7 +3070,7 @@
         <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>86</v>
@@ -3133,7 +3123,7 @@
         <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>86</v>
@@ -3186,7 +3176,7 @@
         <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>86</v>
@@ -3239,7 +3229,7 @@
         <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>86</v>
@@ -3292,7 +3282,7 @@
         <v>82</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>86</v>
@@ -3345,7 +3335,7 @@
         <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>86</v>
@@ -3398,7 +3388,7 @@
         <v>18000000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>86</v>
@@ -3451,7 +3441,7 @@
         <v>22000000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>86</v>
@@ -3504,7 +3494,7 @@
         <v>110</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>86</v>
@@ -3537,50 +3527,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>77</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -3590,13 +3536,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>63</v>
@@ -3611,13 +3557,13 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>63</v>
@@ -3632,13 +3578,13 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>63</v>
@@ -3653,13 +3599,13 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>63</v>
@@ -3674,13 +3620,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>63</v>
@@ -3695,13 +3641,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>63</v>
@@ -3718,13 +3664,13 @@
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>63</v>
@@ -3741,13 +3687,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>63</v>
@@ -3762,7 +3708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -3778,13 +3724,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3816,7 +3762,7 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>63</v>
@@ -3828,13 +3774,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2">
         <v>126170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>86</v>
@@ -3860,7 +3806,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>63</v>
@@ -3872,13 +3818,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2">
         <v>674630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>86</v>
@@ -3904,7 +3850,7 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>63</v>
@@ -3916,13 +3862,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2">
         <v>630750</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>86</v>
@@ -3948,7 +3894,7 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>63</v>
@@ -3960,13 +3906,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G5" s="2">
         <v>446610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>86</v>
@@ -3992,7 +3938,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>63</v>
@@ -4004,13 +3950,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2">
         <v>127230</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>86</v>
@@ -4036,7 +3982,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>63</v>
@@ -4048,13 +3994,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G7" s="2">
         <v>2000000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>86</v>
@@ -4080,7 +4026,7 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>63</v>
@@ -4092,13 +4038,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2">
         <v>5000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>86</v>
@@ -4124,7 +4070,7 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>63</v>
@@ -4136,13 +4082,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G9" s="2">
         <v>267560</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>86</v>
@@ -4168,7 +4114,7 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>63</v>
@@ -4180,13 +4126,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G10" s="2">
         <v>300000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>86</v>
@@ -4212,7 +4158,7 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>63</v>
@@ -4224,13 +4170,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G11" s="2">
         <v>14990</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>86</v>
@@ -4256,7 +4202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -4266,16 +4212,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4283,16 +4229,16 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4300,16 +4246,16 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="D3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="146">
   <si>
     <t>name</t>
   </si>
@@ -356,49 +356,58 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>安泰商業銀行民權分行</t>
   </si>
   <si>
+    <t>安泰商業銀行</t>
+  </si>
+  <si>
+    <t>華泰商業銀行</t>
+  </si>
+  <si>
+    <t>中國銀行</t>
+  </si>
+  <si>
+    <t>美商美國銀行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行敦南分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>安泰商業銀行</t>
-  </si>
-  <si>
-    <t>華泰商業銀行</t>
-  </si>
-  <si>
-    <t>中國銀行</t>
-  </si>
-  <si>
-    <t>美商美國銀行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行敦南分行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>人民幣</t>
   </si>
   <si>
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>世紀民生科技股份有限公司</t>
@@ -3528,13 +3537,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
@@ -3545,162 +3554,318 @@
         <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>11613676</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>11613676</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>161</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>25246</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>59831</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F6" s="2">
-        <v>1751000</v>
-      </c>
-      <c r="G6" s="2">
         <v>7879500</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F7" s="2">
-        <v>1042106</v>
-      </c>
-      <c r="G7" s="2">
         <v>30533705.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>1593775</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="2">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3724,13 +3889,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3762,7 +3927,7 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>63</v>
@@ -3774,13 +3939,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G2" s="2">
         <v>126170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>86</v>
@@ -3806,7 +3971,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>63</v>
@@ -3818,13 +3983,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2">
         <v>674630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>86</v>
@@ -3850,7 +4015,7 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>63</v>
@@ -3862,13 +4027,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G4" s="2">
         <v>630750</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>86</v>
@@ -3894,7 +4059,7 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>63</v>
@@ -3906,13 +4071,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G5" s="2">
         <v>446610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>86</v>
@@ -3938,7 +4103,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>63</v>
@@ -3950,13 +4115,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G6" s="2">
         <v>127230</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>86</v>
@@ -3982,7 +4147,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>63</v>
@@ -3994,13 +4159,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G7" s="2">
         <v>2000000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>86</v>
@@ -4026,7 +4191,7 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>63</v>
@@ -4038,13 +4203,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G8" s="2">
         <v>5000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>86</v>
@@ -4070,7 +4235,7 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>63</v>
@@ -4082,13 +4247,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G9" s="2">
         <v>267560</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>86</v>
@@ -4114,7 +4279,7 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>63</v>
@@ -4126,13 +4291,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G10" s="2">
         <v>300000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>86</v>
@@ -4158,7 +4323,7 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>63</v>
@@ -4170,13 +4335,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G11" s="2">
         <v>14990</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>86</v>
@@ -4212,16 +4377,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4229,16 +4394,16 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4246,16 +4411,16 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="146">
   <si>
     <t>name</t>
   </si>
@@ -443,19 +443,19 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>中華郵政</t>
   </si>
   <si>
     <t>6年期步步高升30萬</t>
   </si>
   <si>
-    <t>保單號碼：63287446.保障期間：9568至10168.保額為30萬.台南歸仁郵局.</t>
-  </si>
-  <si>
     <t>6年期步步高升15萬</t>
   </si>
   <si>
-    <t>保單號碼：63287467.保障期間9568至10168.保額為15萬.台南歸仁郵局</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -4369,49 +4369,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>145</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>144</v>
@@ -4421,6 +4457,24 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>145</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1638</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="2">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2012-05-01_財產申報表_tmpe6421.xlsx
@@ -11,14 +11,16 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
-    <sheet name="保險" sheetId="5" r:id="rId5"/>
+    <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="債權" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="159">
   <si>
     <t>name</t>
   </si>
@@ -443,6 +445,15 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>聯博全球高收益債券基金A股</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
     <t>company</t>
   </si>
   <si>
@@ -456,6 +467,36 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>設定抵押</t>
+  </si>
+  <si>
+    <t>般借款</t>
+  </si>
+  <si>
+    <t>王國道臺北市文山區興隆路</t>
+  </si>
+  <si>
+    <t>啟富建設有限公司臺北市中山區建國北路</t>
+  </si>
+  <si>
+    <t>93年12月01日</t>
+  </si>
+  <si>
+    <t>96年05月01日</t>
+  </si>
+  <si>
+    <t>借款</t>
+  </si>
+  <si>
+    <t>claim</t>
   </si>
 </sst>
 </file>
@@ -4369,6 +4410,110 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>114</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="2">
+        <v>150000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="2">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4377,7 +4522,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4409,19 +4554,19 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>86</v>
@@ -4439,24 +4584,24 @@
         <v>88</v>
       </c>
       <c r="K2" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>86</v>
@@ -4474,7 +4619,149 @@
         <v>88</v>
       </c>
       <c r="K3" s="2">
-        <v>133</v>
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>135</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="2">
+        <v>47500000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="2">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
